--- a/PCB_layout_v2/bom/vayuO2_BoM.xlsx
+++ b/PCB_layout_v2/bom/vayuO2_BoM.xlsx
@@ -11,7 +11,7 @@
     <sheet name="vayuO2_BoM" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">vayuO2_BoM!$A$1:$F$53</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">vayuO2_BoM!$A$1:$F$44</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="148">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">CL10B105KA8NNNC</t>
   </si>
   <si>
-    <t xml:space="preserve">C12,C19,C17,C9</t>
+    <t xml:space="preserve">C12,C9</t>
   </si>
   <si>
     <t xml:space="preserve">CP_Elec_6.3x7.7</t>
@@ -103,19 +103,7 @@
     <t xml:space="preserve">VEJ220M1JTR-0607</t>
   </si>
   <si>
-    <t xml:space="preserve">C16,C15,C14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C153291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL10B102KC8NNNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25,C26,C24,C23,C22,C21,C20,C18,C11,C10,C8,C6,C5,C4,C3</t>
+    <t xml:space="preserve">C25,C26,C24,C23,C22,C21,C11,C10,C8,C6,C5,C4,C3</t>
   </si>
   <si>
     <t xml:space="preserve">100nF</t>
@@ -127,18 +115,6 @@
     <t xml:space="preserve">CL10B104JB8NNNC</t>
   </si>
   <si>
-    <t xml:space="preserve">CN8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB_Micro-B_seeed-320010561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB_micro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO SOURCE FOUND</t>
-  </si>
-  <si>
     <t xml:space="preserve">D2</t>
   </si>
   <si>
@@ -154,21 +130,6 @@
     <t xml:space="preserve">19-217/R6C-AL1M2VY/3T</t>
   </si>
   <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTR5V0U2X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C316030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTR5V0U2X-N</t>
-  </si>
-  <si>
     <t xml:space="preserve">D11,D9,D7,D4,D1</t>
   </si>
   <si>
@@ -187,72 +148,48 @@
     <t xml:space="preserve">LED</t>
   </si>
   <si>
-    <t xml:space="preserve">L2,L1</t>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMBT3904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C84104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5,Q3,Q7,Q6,Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOSFET_D_PAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRLR7843TRPBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12,Q11,Q10,Q9,Q8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSS138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSS138W-7-F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
   </si>
   <si>
     <t xml:space="preserve">R_0603_1608Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">330E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GZ1608D601TF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMBT3904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C84104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-363_SC-70-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTC123YCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C56452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5,Q3,Q7,Q6,Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOSFET_D_PAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRLR7843TRPBF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q12,Q11,Q10,Q9,Q8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSS138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C24553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSS138W-7-F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
     <t xml:space="preserve">220E</t>
   </si>
   <si>
@@ -274,7 +211,7 @@
     <t xml:space="preserve">RC0603JR-074K7L</t>
   </si>
   <si>
-    <t xml:space="preserve">R11,R30,R50,R38,R34,R26,R22,R15</t>
+    <t xml:space="preserve">R11,R30,R50,R38,R34,R26,R22</t>
   </si>
   <si>
     <t xml:space="preserve">1k</t>
@@ -286,19 +223,7 @@
     <t xml:space="preserve">RC0603JR-071KL</t>
   </si>
   <si>
-    <t xml:space="preserve">R18,R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C247025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603WAJ010KT5E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R27,R19,R49,R48,R47,R46,R45,R44,R43,R42,R41,R40,R39,R35,R31,R23,R9,R6,R5,R3,R2,R1</t>
+    <t xml:space="preserve">R3,R27,R49,R48,R47,R46,R45,R44,R43,R42,R41,R40,R39,R35,R31,R23,R6,R5,R2,R1</t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
@@ -310,7 +235,7 @@
     <t xml:space="preserve">0603WAF1002T5E</t>
   </si>
   <si>
-    <t xml:space="preserve">R36,R32,R28,R24,R20,R17,R12,R10</t>
+    <t xml:space="preserve">R36,R32,R28,R24,R20</t>
   </si>
   <si>
     <t xml:space="preserve">470E</t>
@@ -334,230 +259,187 @@
     <t xml:space="preserve">QR0603J10R0P05Z</t>
   </si>
   <si>
-    <t xml:space="preserve">S4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW_SMD_311020004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW-EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTSM-61R-V-T/R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW-BOOT</t>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3231N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3231SN#T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOQ 650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO-252-3_TabPin2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM1117-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C165080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL1117-33CY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOQ 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U8,U12,U9,U7,U10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO-4_5.3x2.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS2801-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C133880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS2801-1-F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr2032_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batt_RTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr2032_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST_EH_B3B-EH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST_EH_B4B-EH-A_1x04_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TerminalBlock_Wurth_1377-2_Horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN13,CN12,CN11,CN10,CN9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST_EH_B2B-EH-A_1x02_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_Analog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADS1115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_ADS1115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_O2_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3231_breakout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3231_BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piezo</t>
   </si>
   <si>
     <t xml:space="preserve">U1</t>
   </si>
   <si>
-    <t xml:space="preserve">ESP_wroom_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESP32-WROOM-32UC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C328062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESP32-WROOM-32U
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS3231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS3231N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS3231SN#T&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOQ 650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO-252-3_TabPin2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LM1117-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C165080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BL1117-33CY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOQ 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFN-28-1EP_5x5mm_Pitch0.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP2102N-A01-GQFN28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C105167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP2102N-A01-GQFN28R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U8,U12,U9,U7,U10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO-4_5.3x2.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS2801-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C133880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS2801-1-F3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cr2032_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batt_RTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cr2032_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JST_EH_B3B-EH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JST_EH_B4B-EH-A_1x04_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TerminalBlock_Wurth_1377-2_Horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24VDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN13,CN12,CN11,CN10,CN9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JST_EH_B2B-EH-A_1x02_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_Analog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADS1115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_ADS1115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_O2_5V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piezo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-C_bout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-C_breakout</t>
+    <t xml:space="preserve">ESP32_DOIT_V1_Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP32_breakout</t>
   </si>
   <si>
     <t xml:space="preserve">U3</t>
@@ -594,7 +476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -629,6 +511,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -725,8 +612,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -818,15 +705,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.91"/>
@@ -917,7 +804,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>19</v>
@@ -963,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>27</v>
@@ -983,19 +870,19 @@
         <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,18 +890,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1023,22 +913,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,22 +936,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,22 +959,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,22 +982,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,22 +1005,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,19 +1028,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>61</v>
@@ -1161,19 +1051,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>65</v>
@@ -1183,20 +1073,20 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>69</v>
@@ -1207,22 +1097,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,22 +1120,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,13 +1143,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="D19" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>80</v>
@@ -1269,6 +1159,9 @@
       </c>
       <c r="G19" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,22 +1169,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,275 +1195,219 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="5" t="n">
+      <c r="B22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="B23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="5" t="n">
+      <c r="B24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="E30" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="C31" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="D31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>136</v>
-      </c>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D32" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F32" s="10"/>
     </row>
@@ -1576,16 +1416,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D33" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F33" s="10"/>
     </row>
@@ -1594,16 +1434,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="D34" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F34" s="10"/>
     </row>
@@ -1612,16 +1452,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D35" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="F35" s="10"/>
     </row>
@@ -1630,16 +1470,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D36" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F36" s="10"/>
     </row>
@@ -1648,16 +1488,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D37" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F37" s="10"/>
     </row>
@@ -1666,16 +1506,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D38" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F38" s="10"/>
     </row>
@@ -1684,16 +1524,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D39" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="F39" s="10"/>
     </row>
@@ -1702,16 +1542,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D40" s="9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F40" s="10"/>
     </row>
@@ -1720,16 +1560,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D41" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F41" s="10"/>
     </row>
@@ -1738,219 +1578,48 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D42" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="F42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F43" s="10"/>
+      <c r="D43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D51" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="0"/>
+      <c r="D44" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F53"/>
+  <autoFilter ref="A1:F44"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="VEJ101M1CTR-0605"/>
     <hyperlink ref="G3" r:id="rId2" display="CL10B105KA8NNNC"/>
     <hyperlink ref="G4" r:id="rId3" display="VEJ100M2ATR-0607"/>
     <hyperlink ref="G5" r:id="rId4" display="VEJ220M1JTR-0607"/>
-    <hyperlink ref="G6" r:id="rId5" display="CL10B102KC8NNNC"/>
-    <hyperlink ref="G7" r:id="rId6" display="CL10B104JB8NNNC"/>
-    <hyperlink ref="G9" r:id="rId7" display="19-217/R6C-AL1M2VY/3T"/>
-    <hyperlink ref="G10" r:id="rId8" display="PRTR5V0U2X-N"/>
-    <hyperlink ref="G11" r:id="rId9" display="B220A-13-F"/>
-    <hyperlink ref="G12" r:id="rId10" display="19-217/R6C-AL1M2VY/3T"/>
-    <hyperlink ref="G13" r:id="rId11" display="GZ1608D601TF"/>
-    <hyperlink ref="G14" r:id="rId12" display="MMBT3904"/>
-    <hyperlink ref="G15" r:id="rId13" display="DTC123YCA"/>
-    <hyperlink ref="G16" r:id="rId14" display="IRLR7843TRPBF"/>
-    <hyperlink ref="G17" r:id="rId15" display="BSS138W-7-F"/>
-    <hyperlink ref="G18" r:id="rId16" display="RMC06032201%N"/>
-    <hyperlink ref="G19" r:id="rId17" display="RC0603JR-074K7L"/>
-    <hyperlink ref="G20" r:id="rId18" display="RC0603JR-071KL"/>
-    <hyperlink ref="G21" r:id="rId19" display="0603WAJ010KT5E"/>
-    <hyperlink ref="G22" r:id="rId20" display="0603WAF1002T5E"/>
-    <hyperlink ref="G23" r:id="rId21" display="QR0603F470RP05Z"/>
-    <hyperlink ref="G24" r:id="rId22" display="QR0603J10R0P05Z"/>
-    <hyperlink ref="G25" r:id="rId23" display="DTSM-61R-V-T/R"/>
-    <hyperlink ref="G26" r:id="rId24" display="DTSM-61R-V-T/R"/>
-    <hyperlink ref="G27" r:id="rId25" display="ESP32-WROOM-32U&#10;"/>
-    <hyperlink ref="G28" r:id="rId26" display="DS3231SN#T&amp;R"/>
-    <hyperlink ref="G29" r:id="rId27" display="BL1117-33CY"/>
-    <hyperlink ref="G30" r:id="rId28" display="CP2102N-A01-GQFN28R"/>
-    <hyperlink ref="G31" r:id="rId29" display="PS2801-1-F3"/>
+    <hyperlink ref="G6" r:id="rId5" display="CL10B104JB8NNNC"/>
+    <hyperlink ref="G7" r:id="rId6" display="19-217/R6C-AL1M2VY/3T"/>
+    <hyperlink ref="G8" r:id="rId7" display="B220A-13-F"/>
+    <hyperlink ref="G9" r:id="rId8" display="19-217/R6C-AL1M2VY/3T"/>
+    <hyperlink ref="G10" r:id="rId9" display="MMBT3904"/>
+    <hyperlink ref="G11" r:id="rId10" display="IRLR7843TRPBF"/>
+    <hyperlink ref="G12" r:id="rId11" display="BSS138W-7-F"/>
+    <hyperlink ref="G13" r:id="rId12" display="RMC06032201%N"/>
+    <hyperlink ref="G14" r:id="rId13" display="RC0603JR-074K7L"/>
+    <hyperlink ref="G15" r:id="rId14" display="RC0603JR-071KL"/>
+    <hyperlink ref="G16" r:id="rId15" display="0603WAF1002T5E"/>
+    <hyperlink ref="G17" r:id="rId16" display="QR0603F470RP05Z"/>
+    <hyperlink ref="G18" r:id="rId17" display="QR0603J10R0P05Z"/>
+    <hyperlink ref="G19" r:id="rId18" display="DS3231SN#T&amp;R"/>
+    <hyperlink ref="G20" r:id="rId19" display="BL1117-33CY"/>
+    <hyperlink ref="G21" r:id="rId20" display="PS2801-1-F3"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1959,6 +1628,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId30"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>